--- a/biology/Botanique/Pinus_lambertiana/Pinus_lambertiana.xlsx
+++ b/biology/Botanique/Pinus_lambertiana/Pinus_lambertiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pin à sucre, Pinus lambertiana, est une espèce de pins, de la famille des Pinaceae, que l'on ne trouve que sur la côte ouest des États-Unis et du Mexique, dans les états d'Oregon, de Californie et de Basse-Californie, et notamment dans la Sierra Nevada, la chaîne des Cascades, les chaînes côtières du Pacifique et la Sierra de San Pedro Mártir.
 </t>
@@ -511,9 +523,11 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le naturaliste John Muir considérait que le pin à sucre était le « roi des conifères ». Le nom vernaculaire vient de la résine douce, que Muir aurait trouvée meilleure que le sucre d'érable[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naturaliste John Muir considérait que le pin à sucre était le « roi des conifères ». Le nom vernaculaire vient de la résine douce, que Muir aurait trouvée meilleure que le sucre d'érable.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est la plus grande espèce de pin, atteignant communément les 40-60 mètres de hauteur, exceptionnellement jusqu'à 81 m, avec un tronc dont le diamètre varie généralement entre 1,5 à 2,5 m, allant au maximum jusqu'à 3,5 m.
 C'est un membre du groupe des pins blancs, c'est-à-dire du sous-genre Strobus du genre Pinus, et comme chez tous les arbres de ce groupe, les feuilles (ou aiguilles) sont regroupées cinq par cinq, avec une gaine caduque. Elles mesurent 6-11 cm de long. Ce pin a les plus longs cônes de tous les conifères, ceux du Pin à gros cônes étant simplement plus massifs. Ces cônes mesurent de 25 à 50 cm de long, atteignant exceptionnellement les 66 cm. Les graines mesurent entre 10 et 12 mm de long, avec des ailes de 2-3 cm de long, aidant à la dissémination.
@@ -574,10 +590,12 @@
           <t>Infections fongiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pin à sucre a été plusieurs fois infecté par la rouille vésiculeuse du pin blanc (Cronartium ribicola), un champignon accidentellement introduit depuis l'Europe en 1909. Une grande partie de ces pins a été tuée par cette rouille, particulièrement dans la partie septentrionale de la répartition qui a longtemps hébergé ce champignon.
-L'infection a aussi touché d'autres espèces, détruisant Pins argentés et Pins à écorce blanche. Le Service des forêts des États-Unis a un programme visant à développer des Pins à sucre et de Pins argentés résistants à la rouille. Des graines de ces arbres ont été introduites dans la nature. L'initiative de la Sugar Pine Foundation dans le bassin du lac Tahoe a trouvé des graines de Pins à sucre résistantes et a démontré qu'il est important que les citoyens aident le Service des forêts des États-Unis pour la sauvegarde des espèces[2].
+L'infection a aussi touché d'autres espèces, détruisant Pins argentés et Pins à écorce blanche. Le Service des forêts des États-Unis a un programme visant à développer des Pins à sucre et de Pins argentés résistants à la rouille. Des graines de ces arbres ont été introduites dans la nature. L'initiative de la Sugar Pine Foundation dans le bassin du lac Tahoe a trouvé des graines de Pins à sucre résistantes et a démontré qu'il est important que les citoyens aident le Service des forêts des États-Unis pour la sauvegarde des espèces.
 </t>
         </is>
       </c>
